--- a/xlsx/_wiki_钏路拉面_intext.xlsx
+++ b/xlsx/_wiki_钏路拉面_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>钏路拉面</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E9%87%A7%E8%B7%AF%E3%83%A9%E3%83%BC%E3%83%A1%E3%83%B3</t>
@@ -474,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,29 +887,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_钏路拉面_intext.xlsx
+++ b/xlsx/_wiki_钏路拉面_intext.xlsx
@@ -23,91 +23,91 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%92%8F%E8%B7%AF%E6%8B%89%E9%9D%A2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
     <t>日本</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7%E9%81%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
     <t>北海道</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%A7%E8%B7%AF%E5%B8%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%A7%E8%B7%AF%E5%B8%82</t>
   </si>
   <si>
     <t>钏路市</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%BA%B5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8B%89%E9%BA%B5</t>
   </si>
   <si>
     <t>拉面</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E9%AD%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9F%B4%E9%AD%9A</t>
   </si>
   <si>
     <t>柴鱼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AC%E6%B2%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%86%AC%E6%B2%B9</t>
   </si>
   <si>
     <t>酱油</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%86%E5%B8%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%86%E5%B8%83</t>
   </si>
   <si>
     <t>昆布</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B8%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B5%B7%E5%B8%B6</t>
   </si>
   <si>
     <t>海带</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E8%84%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B2%B9%E8%84%82</t>
   </si>
   <si>
     <t>油脂</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%B2%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%B2%A9</t>
   </si>
   <si>
     <t>小贩</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
     <t>第二次世界大战</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E5%B9%8C%E6%8B%89%E9%BA%B5%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%AD%E5%B9%8C%E6%8B%89%E9%BA%B5%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
     <t>札幌拉面共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AD%E5%B9%8C%E6%8B%89%E9%BA%B5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%AD%E5%B9%8C%E6%8B%89%E9%BA%B5</t>
   </si>
   <si>
     <t>札幌拉面</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%AD%E5%B7%9D%E6%8B%89%E9%BA%B5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%AD%E5%B7%9D%E6%8B%89%E9%BA%B5</t>
   </si>
   <si>
     <t>旭川拉面</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%A7%E8%B7%AF%E6%8B%89%E9%BA%B5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%A7%E8%B7%AF%E6%8B%89%E9%BA%B5</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
